--- a/results/over_time_edu.xlsx
+++ b/results/over_time_edu.xlsx
@@ -519,58 +519,58 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
+        <v>43109.189</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>четырехмерного, тела, многореверсный, границы, плоская</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
         <v>43201.55</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>гнойно, ятрогенного, септических, экспериментальном, челюсти</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>43109.189</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>четырехмерного, тела, переменного, плоская, кельт</t>
+          <t>гнойно, ятрогенного, желчевыводящих, челюсти, экспериментальном</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
         <v>43109.189</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>интерфейсное, пользовательское, хирургического, системы, моделирования</t>
+          <t>тестирования, реализуемые, мобильный, критериально, когнитивных</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
         <v>43109.189</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>полос, формирование, границ, динамический, гусеничной</t>
+          <t>интерфейсное, пользовательское, хирургического, системы, моделирования</t>
         </is>
       </c>
       <c r="N2" s="2" t="n">
         <v>43109.189</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>компьютере, когнитивных, реализуемые, мобильный, функций</t>
+          <t>динамический, гусеничной, вождения, машины, тренажер</t>
         </is>
       </c>
     </row>
@@ -579,58 +579,58 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43292.1</v>
+        <v>43201.55</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>гестоза, таурин, препаратом, экспериментального, коррекции</t>
+          <t>виброизоляторов, упругих, элементов, маски, приклеивания</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
         <v>43292.1</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>тел, физическое, объёмное, сообразительность, вузов</t>
+          <t>гестоза, препаратом, таурин, экспериментального, коррекции</t>
         </is>
       </c>
       <c r="H3" s="2" t="n">
         <v>43292.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>бессознательным, тактильный, компонентами, изображений, цифровая</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>43292.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>задачи, микрорану, частной, микрохирургическая, профиля</t>
         </is>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="N3" s="2" t="n">
         <v>43201.55</v>
       </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>макет, завода, демонстрационно, полосы, водителя</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>43292.1</v>
-      </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>дисплей, объединенными, компонентами, тактильный, визуальной</t>
+          <t>завода, бетонного, макет, водителя, механика</t>
         </is>
       </c>
     </row>
@@ -639,25 +639,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
+        <v>43292.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>сообразительность, естественнонаучных, тело, вузов, факультетов</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>43473.2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>профилактики, 16, понижения, мышечной, кишечника</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>43382.65</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>нано, стохастической, тепловом, динамики, поле</t>
+          <t>профилактики, 16, ишемической, аргиназы, ишемических</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -668,29 +668,29 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>основам, естественных, проведения, дисциплин, наук</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>43382.65</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>хирургический, тренажёр, отработки, навыков, под</t>
         </is>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="N4" s="2" t="n">
         <v>43292.1</v>
       </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>эвакуации, должностных, лиц, меньшей, мере</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>43473.2</v>
-      </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>инженерной, графике, обучения, способ, интерактивный</t>
+          <t>эвакуации, одного, мере, перемещения, меньшей</t>
         </is>
       </c>
     </row>
@@ -699,25 +699,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
+        <v>43382.65</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>нано, стохастической, поле, обнаружения, динамики</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>43563.75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>мозга, головного, нейронов, гибели, дофаминергических</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>43473.2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>рекуперативного, звукопоглотителей, акустических, торможения, испытаний</t>
+          <t>мозга, головного, сва, нейронов, дофаминергических</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -728,29 +728,29 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>инженерной, графике, обучения, способ, технических</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>43473.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>предоперационного, процедуры, хирургической, моделирования, система</t>
         </is>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="N5" s="2" t="n">
         <v>43382.65</v>
       </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>ситуации, демонстрационный, транспортир, чрезвычайной, стенд</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>43654.3</v>
-      </c>
       <c r="O5" t="n">
         <v>2</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>дидактическая, монстр, настольная, интерактивного, стоп</t>
+          <t>ситуации, чрезвычайной, транспортир, демонстрационный, стенд</t>
         </is>
       </c>
     </row>
@@ -759,58 +759,58 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
+        <v>43473.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>рекуперативного, акустических, звукопоглотителей, торможения, испытаний</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>43654.3</v>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>лимфовенозной, недостаточности, тазовых, органах, моделирования</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>43563.75</v>
-      </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>указаний, легочной, руководящих, программный, продукт</t>
+          <t>лимфовенозной, тазовых, органах, недостаточности, моделирования</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>43654.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>стоп, дидактическая, монстр, настольная, интерактивного</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>43654.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>01, преподавания, студентам, тем, сосудистой</t>
         </is>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="N6" s="2" t="n">
         <v>43473.2</v>
       </c>
-      <c r="L6" t="n">
-        <v>4</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>датчиков, генерации, виртуальных, погодных, курс</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>43744.85</v>
-      </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>динамограмм, производственного, бережливому, производству, интерпретации</t>
+          <t>навигации, развитый, средстве, транспортном, навигационные</t>
         </is>
       </c>
     </row>
@@ -819,58 +819,58 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
+        <v>43654.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ii, степени, флейте, воздуха, игре</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>43744.85</v>
       </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ткани, термического, экспериментах, саркомы, атрофию</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>43654.3</v>
-      </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>сборно, флейте, разборное, приспособление, игре</t>
+          <t>ткани, соединительной, вызывающее, воздействия, регистрации</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>43744.85</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>вмешательств, микрохирургического, планирования, ветеринарной, хирургических</t>
+          <t>динамограмм, производству, производственного, бережливому, интерпретации</t>
         </is>
       </c>
       <c r="K7" s="2" t="n">
         <v>43744.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>танк, тренажер, вождения, выявления, гусеничной</t>
+          <t>вмешательств, микрохирургического, планирования, ветеринарной, хирургических</t>
         </is>
       </c>
       <c r="N7" s="2" t="n">
-        <v>43925.95</v>
+        <v>43654.3</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>работника, предприятии, эффективности, программно, аппаратный</t>
+          <t>сред, предположительно, замкнутых, загрязненных, условиях</t>
         </is>
       </c>
     </row>
@@ -879,58 +879,58 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
+        <v>43744.85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>явления, автоматического, металла, анизотропии, массового</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>43835.4</v>
       </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>перитонита, одноосном, местного, костной, ее</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>перитонита, одноосном, костной, отграниченного, образцов</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>43835.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>анатомии, топографической, компьютерном, дисциплине, тестировании</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>44016.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>пациента, симулятор, отработки, хирургический, навыков</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>43744.85</v>
       </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>явления, анизотропии, истинного, массового, металла</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>44016.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>пациента, симулятор, отработки, хирургический, навыков</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>43835.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>фокина, автомобилей, площадке, вождению, устройство</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>44288.15</v>
-      </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>кодирования, оптомеханической, сигналов, сложных, функций</t>
+          <t>танк, тренажер, машин, вождению, гусеничной</t>
         </is>
       </c>
     </row>
@@ -939,58 +939,58 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
+        <v>43835.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>случайной, структуры, эффекта, периодических, вилочного</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>43925.95</v>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>показателям, камня, метаболическим, in, vivo</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>метаболическим, структур, топографо, камня, точных</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>43925.95</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>предприятии, работника, программно, аппаратный, эффективности</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>44107.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>реального, ассистированной, робот, процессе, микрохирургических</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n">
         <v>43835.4</v>
       </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>транспорта, магнито, моделирующее, эффекта, напольного</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>44107.05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>реального, ассистированной, робот, процессе, микрохирургических</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>43925.95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>усовершенствованная, ориентирования, пешеходов, конструкция, для</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>44378.7</v>
-      </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>бережливых, технологий, применения, навыкам, обучения</t>
+          <t>фокина, площадке, автомобилей, вождению, устройство</t>
         </is>
       </c>
     </row>
@@ -999,58 +999,58 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
+        <v>43925.95</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ядер, двойной, электрона, атомных, законов</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>44016.5</v>
       </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>легкого, токсическим, свиньи, получения, каркаса</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>43925.95</v>
-      </c>
       <c r="F10" t="n">
         <v>3</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>переносе, хаотической, важной, переходного, инвариантности</t>
+          <t>легкого, крови, получения, свиньи, живой</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>44288.15</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>сигналов, кодирования, оптомеханической, сложных, функций</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>44288.15</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>микрохирургической, техники, отработки, навыков, устройство</t>
         </is>
       </c>
-      <c r="K10" s="2" t="n">
-        <v>44197.6</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>вождения, симулятор, тренажер, выявления, динамический</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="n">
-        <v>44469.25</v>
+        <v>43925.95</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>компьютеризованный, дефектоскопных, тележек, интерактивный, обучению</t>
+          <t>ориентирования, усовершенствованная, конструкция, пешеходов, для</t>
         </is>
       </c>
     </row>
@@ -1062,11 +1062,11 @@
         <v>44107.05</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>кроликах, травмы, биотрансформации, открытой, кишечной</t>
+          <t>генерирующего, магнитным, фрегат, свободных, выдавливанием</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
@@ -1077,40 +1077,40 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>автоэлектронной, магнитным, эмиссии, электронов, катушка</t>
+          <t>огнестрельной, кишечной, кроликах, открытой, травмы</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>44378.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>заданий, бережливых, тестовых, создания, технологий</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>44378.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>гастростомы, периферийное, эндоскопических, чрескожной, наложению</t>
         </is>
       </c>
-      <c r="K11" s="2" t="n">
-        <v>44288.15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>автодрома, симулятор, вождения, выявления, среде</t>
-        </is>
-      </c>
       <c r="N11" s="2" t="n">
-        <v>44650.35</v>
+        <v>44197.6</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>тактильной, археологических, успеваемости, геологических, развлекательное</t>
+          <t>вождения, симулятор, тренажер, машин, динамический</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3d, программного, опухолевого, снижения, воспалительного</t>
+          <t>низкоэнергетических, программируемый, короткозамкнутого, преобразователя, лабораторный</t>
         </is>
       </c>
       <c r="E12" s="2" t="n">
@@ -1137,40 +1137,40 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>лабораторный, электродвигателя, аппаратному, частотного, короткозамкнутого</t>
+          <t>опухолевого, деформационных, 3d, интенсивности, фиксации</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
+        <v>44650.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>реальности, археологических, палеонтологических, успеваемости, развлекательное</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
         <v>44469.25</v>
       </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>лапароскопический, поликлинического, врача, профессиональной, подготовки</t>
         </is>
       </c>
-      <c r="K12" s="2" t="n">
-        <v>44650.35</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>машиниста, многофункциональный, маневрового, тепловоза, тренажер</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="n">
-        <v>44740.9</v>
+        <v>44288.15</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>окружение, видеоучебника, киберфизического, выдачи, устройство</t>
+          <t>автодрома, симулятор, тренажер, вождению, динамический</t>
         </is>
       </c>
     </row>
@@ -1186,51 +1186,51 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>облитерации, ответ, стенки, венозной, пузыря</t>
+          <t>земель, помощи, деградации, от, штоков</t>
         </is>
       </c>
       <c r="E13" s="2" t="n">
+        <v>44559.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>туберкулеза, методов, облитерации, пузыря, ответ</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>44740.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>видеоучебника, окружение, киберфизического, выдачи, устройство</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>44559.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>реабилитационно, проектами, лечебно, восстановительной, клинической</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="n">
         <v>44650.35</v>
       </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>энергии, молекулярной, термодинамике, массы, лабораториях</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>44559.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>реабилитационно, проектами, лечебно, восстановительной, клинической</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>44831.45</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>динамическая, вибраций, радиолокационного, физическая, комплекса</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>44831.45</v>
-      </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>обстановки, визуальной, имитации, устройство, интерактивный</t>
+          <t>тепловоза, маневрового, многофункциональный, машиниста, тренажер</t>
         </is>
       </c>
     </row>
@@ -1242,41 +1242,57 @@
         <v>44650.35</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>соединений, лепры, медицине, восстановительного, противолепрозной</t>
+          <t>молекулярной, лабораториях, массы, энергии, взаимосвязи</t>
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44740.9</v>
+        <v>44650.35</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>зоны, некроза, термоабляции, определения, при</t>
+          <t>противолепрозной, лепры, углеводородных, восстановительного, медицине</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
+        <v>44831.45</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>методике, рисованию, рябцевой, елены, обстановки</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
         <v>44650.35</v>
       </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>лапароскопического, офтальмологии, измерительный, манипуляционно, рабочий</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="N14" s="2" t="n">
+        <v>44831.45</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>радиолокационного, вибраций, динамическая, кабины, физическая</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1286,38 +1302,38 @@
         <v>44740.9</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>сосудов, морфологических, изготовления, препаратов, исследований</t>
+          <t>безопасности, некроза, круг, производстве, зоны</t>
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44831.45</v>
+        <v>44740.9</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>теплицы, надземной, платформа, клубники, виртуальная</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
+          <t>изготовления, морфологических, сосудов, анатомических, препаратов</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" s="2" t="n">
         <v>44740.9</v>
       </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>нейрохирургический, отработки, трансназального, пространстве, эндоскопического</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -1326,26 +1342,34 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>44831.45</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>платформа, виртуальная, выращивания, клубники, надземной</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" s="2" t="n">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" s="2" t="n">
         <v>44831.45</v>
       </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>контролем, симуляционных, под, технологий, эпидуральный</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
